--- a/output/frat/gensim/gensim_top3.xlsx
+++ b/output/frat/gensim/gensim_top3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\r_m_thesis\output\frat\gensim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D961E8A-D338-4983-8DF7-8916054DD765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A9AEBA8-8309-4C56-B90A-E3F0AE0F0805}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5580" yWindow="5580" windowWidth="28800" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1110,11 +1110,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="6" max="6" width="23.81640625" customWidth="1"/>
+    <col min="7" max="7" width="54.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
